--- a/users.xlsx
+++ b/users.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1201,9 +1202,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1212,17 +1210,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,6 +1237,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1258,12 +1259,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1305,7 +1309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,7 +1344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1559,155 +1563,155 @@
   <cols>
     <col min="1" max="1" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="6.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>43875</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -1716,31 +1720,31 @@
       <c r="B11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>3</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>3</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -1749,15 +1753,15 @@
       <c r="B12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -1766,15 +1770,15 @@
       <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -1783,15 +1787,15 @@
       <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -1800,15 +1804,15 @@
       <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -1817,15 +1821,15 @@
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1834,15 +1838,15 @@
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1851,15 +1855,15 @@
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -1868,15 +1872,15 @@
       <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -1885,998 +1889,997 @@
       <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="8"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="8"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="8"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="8"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="8"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="8"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>飯間 百合子</t>
     <rPh sb="0" eb="2">
@@ -1017,13 +1016,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成日</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標達成度</t>
     <rPh sb="0" eb="2">
       <t>モクヒョウ</t>
@@ -1044,68 +1036,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3：達成</t>
+    <t>達成度</t>
+    <rPh sb="0" eb="2">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下肢筋力および立位バランス能力維持</t>
+  </si>
+  <si>
+    <t>畑仕事の再開</t>
+  </si>
+  <si>
+    <t>畑仕事再開に向けて、不整地での歩行能力向上</t>
+  </si>
+  <si>
+    <t>評価内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前
+（Ⅱ限定）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩行能力維持</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：達成</t>
     <rPh sb="2" eb="4">
       <t>タッセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1：未達成</t>
-    <rPh sb="2" eb="5">
-      <t>ミタッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>達成度</t>
-    <rPh sb="0" eb="2">
+    <t>3：未達成</t>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>タッセイ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下肢筋力および立位バランス能力維持</t>
-  </si>
-  <si>
-    <t>畑仕事の再開</t>
-  </si>
-  <si>
-    <t>畑仕事再開に向けて、不整地での歩行能力向上</t>
-  </si>
-  <si>
-    <t>評価内容</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前
-（Ⅱ限定）</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歩行能力維持</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1190,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,14 +1224,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,9 +1237,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1556,7 +1545,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1575,10 +1564,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="10"/>
       <c r="D1" s="5"/>
       <c r="E1" s="10"/>
@@ -1592,32 +1581,36 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="4"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
-        <v>43875</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="5"/>
@@ -1625,8 +1618,8 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>143</v>
+      <c r="A6" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="5"/>
@@ -1634,84 +1627,84 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="5"/>
       <c r="E7" s="10"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18" t="s">
-        <v>150</v>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -1721,28 +1714,28 @@
         <v>67</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="8"/>
     </row>
@@ -2870,19 +2863,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/users.xlsx
+++ b/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="152">
   <si>
     <t>飯間 百合子</t>
     <rPh sb="0" eb="2">
@@ -24,16 +24,6 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>ユリコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>伊賀 コヒデ</t>
-    <rPh sb="0" eb="1">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -692,10 +682,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ｲｶﾞｺﾋﾃﾞ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ｲｼｲﾌｻｺ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1101,6 +1087,14 @@
     <rPh sb="3" eb="5">
       <t>タッセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1226,9 +1220,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,6 +1228,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1542,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1564,10 +1558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="10"/>
       <c r="D1" s="5"/>
       <c r="E1" s="10"/>
@@ -1582,7 +1576,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
@@ -1596,7 +1590,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="5"/>
@@ -1610,7 +1604,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="5"/>
@@ -1619,7 +1613,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="5"/>
@@ -1634,134 +1628,154 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="17"/>
+        <v>140</v>
+      </c>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="6"/>
@@ -1778,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="6"/>
@@ -1795,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="6"/>
@@ -1812,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="6"/>
@@ -1829,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="6"/>
@@ -1846,7 +1860,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="6"/>
@@ -1863,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="6"/>
@@ -1879,8 +1893,8 @@
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>76</v>
+      <c r="B20" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="6"/>
@@ -1897,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="6"/>
@@ -1914,7 +1928,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="6"/>
@@ -1931,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="6"/>
@@ -1948,7 +1962,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="6"/>
@@ -1965,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="6"/>
@@ -1982,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="6"/>
@@ -1999,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="6"/>
@@ -2016,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="6"/>
@@ -2033,7 +2047,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="6"/>
@@ -2050,7 +2064,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="6"/>
@@ -2067,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="6"/>
@@ -2084,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="6"/>
@@ -2101,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="6"/>
@@ -2118,7 +2132,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="6"/>
@@ -2135,7 +2149,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="6"/>
@@ -2152,7 +2166,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="6"/>
@@ -2169,7 +2183,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="6"/>
@@ -2186,7 +2200,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="6"/>
@@ -2203,7 +2217,7 @@
         <v>28</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="6"/>
@@ -2220,7 +2234,7 @@
         <v>29</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="6"/>
@@ -2237,7 +2251,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="6"/>
@@ -2254,7 +2268,7 @@
         <v>31</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="6"/>
@@ -2271,7 +2285,7 @@
         <v>32</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="6"/>
@@ -2288,7 +2302,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="6"/>
@@ -2305,7 +2319,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="6"/>
@@ -2322,7 +2336,7 @@
         <v>35</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="6"/>
@@ -2339,7 +2353,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="6"/>
@@ -2356,7 +2370,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="6"/>
@@ -2373,7 +2387,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="6"/>
@@ -2390,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="6"/>
@@ -2407,7 +2421,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="6"/>
@@ -2424,7 +2438,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="6"/>
@@ -2441,7 +2455,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="6"/>
@@ -2458,7 +2472,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="6"/>
@@ -2475,7 +2489,7 @@
         <v>44</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="6"/>
@@ -2492,7 +2506,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="6"/>
@@ -2509,7 +2523,7 @@
         <v>46</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="6"/>
@@ -2526,7 +2540,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="6"/>
@@ -2543,7 +2557,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="6"/>
@@ -2560,7 +2574,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="6"/>
@@ -2577,7 +2591,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="6"/>
@@ -2594,7 +2608,7 @@
         <v>51</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="6"/>
@@ -2611,7 +2625,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="6"/>
@@ -2628,7 +2642,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="6"/>
@@ -2645,7 +2659,7 @@
         <v>54</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="6"/>
@@ -2662,7 +2676,7 @@
         <v>55</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="6"/>
@@ -2679,7 +2693,7 @@
         <v>56</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="6"/>
@@ -2696,7 +2710,7 @@
         <v>57</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="6"/>
@@ -2713,7 +2727,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="6"/>
@@ -2730,7 +2744,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="6"/>
@@ -2747,7 +2761,7 @@
         <v>60</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="6"/>
@@ -2764,7 +2778,7 @@
         <v>61</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="6"/>
@@ -2781,7 +2795,7 @@
         <v>62</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="6"/>
@@ -2798,7 +2812,7 @@
         <v>63</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="6"/>
@@ -2815,7 +2829,7 @@
         <v>64</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="6"/>
@@ -2832,7 +2846,7 @@
         <v>65</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="6"/>
@@ -2844,35 +2858,18 @@
       <c r="J76" s="6"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="150">
   <si>
     <t>飯間 百合子</t>
     <rPh sb="0" eb="2">
@@ -24,16 +24,6 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>ユリコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>石井フサ子</t>
-    <rPh sb="0" eb="2">
-      <t>イシイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -288,19 +278,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>志津木　豊茂</t>
-    <rPh sb="0" eb="2">
-      <t>シヅ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トヨシゲ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>柴田 啓</t>
     <rPh sb="0" eb="2">
       <t>シバタ</t>
@@ -1002,26 +979,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標達成度</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2：一部</t>
-    <rPh sb="2" eb="4">
-      <t>イチブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>達成度</t>
     <rPh sb="0" eb="2">
       <t>タッセイ</t>
@@ -1073,28 +1030,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1：達成</t>
-    <rPh sb="2" eb="4">
-      <t>タッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3：未達成</t>
-    <rPh sb="2" eb="3">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志津木 豊茂</t>
+    <rPh sb="0" eb="2">
+      <t>シヅ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トヨシゲ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石井 フサ子</t>
+    <rPh sb="0" eb="2">
+      <t>イシイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>達成</t>
+    <rPh sb="0" eb="2">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1181,14 +1158,8 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,13 +1167,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,7 +1186,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,9 +1212,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,7 +1231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1292,7 +1273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1327,7 +1308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,1340 +1517,1287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="6.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="2"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="D5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="4"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="F6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="4"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="H6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="E7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="B33" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B34" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B35" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B36" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B37" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B38" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B39" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B42" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B44" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B45" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B46" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B47" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B48" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B49" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B50" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="8"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B51" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="8"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B52" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="8"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B53" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="8"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B54" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="8"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B55" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="8"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B56" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="8"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B57" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="8"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B58" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="8"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B59" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="8"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B60" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="8"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B61" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="8"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B62" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="8"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B63" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="8"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B64" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="8"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B65" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="8"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B66" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B67" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="8"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B68" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="8"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
+      <c r="C68" s="8"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B69" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="8"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B70" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="8"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
+      <c r="C70" s="8"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B71" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="8"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="8"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2883,7 +2811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2896,7 +2824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
